--- a/data/metadata/Informe-04-040003-A-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040003-A-TM-TP.xlsx
@@ -49,9 +49,6 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -76,10 +73,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
@@ -188,89 +188,89 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">

--- a/data/metadata/Informe-04-040003-A-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040003-A-TM-TP.xlsx
@@ -11,78 +11,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>superficie-agricola-utilizada-sau</t>
-  </si>
-  <si>
-    <t>-superficie-regada-sobre-sau</t>
-  </si>
-  <si>
-    <t>superficie-regada-has</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+  <si>
+    <t>Superficie Agrícola Utilizada (SAU)</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>% superficie regada sobre SAU</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Superficie regada (has)</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:superficie-agricola-utilizada-sau</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:superficie-regada-sobre-sau</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:superficie-agricola-utilizada-sau</t>
-  </si>
-  <si>
-    <t>iaest-measure:-superficie-regada-sobre-sau</t>
-  </si>
-  <si>
     <t>iaest-measure:superficie-regada-has</t>
   </si>
   <si>
-    <t>null</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -194,91 +191,88 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-04-040003-A-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040003-A-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Superficie Agrícola Utilizada (SAU)</t>
   </si>
@@ -43,6 +43,36 @@
     <t>Municipio nombre</t>
   </si>
   <si>
+    <t>superficie-agricola-utilizada-sau</t>
+  </si>
+  <si>
+    <t>ccaa-nombre</t>
+  </si>
+  <si>
+    <t>ccaa-codigo</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>superficie-regada-sobre-sau</t>
+  </si>
+  <si>
+    <t>municipio-codigo</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>superficie-regada-has</t>
+  </si>
+  <si>
+    <t>municipio-nombre</t>
+  </si>
+  <si>
     <t>iaest-measure:superficie-agricola-utilizada-sau</t>
   </si>
   <si>
@@ -80,9 +110,6 @@
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -185,94 +212,121 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
